--- a/data/df_Level7.xlsx
+++ b/data/df_Level7.xlsx
@@ -1950,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="EB2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EC2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="EN2" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.4865042554105199</v>
+        <v>0.4517539514526256</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.3608012122941099</v>
+        <v>0</v>
       </c>
       <c r="EX2" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="FL2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="FM2" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.7692307692307693</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.384615384615385</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.4213250442347432</v>
+        <v>0</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.696568087549032</v>
+        <v>0.6388765649999398</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.737820234355803</v>
+        <v>0.880630571852711</v>
       </c>
       <c r="GP2" t="n">
         <v>26</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="EB3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="EC3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
@@ -2659,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1538461538461539</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
         <v>0</v>
@@ -2689,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.4865042554105199</v>
+        <v>0.4517539514526256</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.3608012122941099</v>
+        <v>0</v>
       </c>
       <c r="EX3" t="n">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2737,13 +2737,13 @@
         <v>0</v>
       </c>
       <c r="FL3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="FM3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
@@ -2779,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.7692307692307693</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.384615384615385</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.4213250442347432</v>
+        <v>0</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
@@ -2821,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.696568087549032</v>
+        <v>0.6388765649999398</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.737820234355803</v>
+        <v>0.880630571852711</v>
       </c>
       <c r="GP3" t="n">
         <v>26</v>
@@ -3308,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="EB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
@@ -3338,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
       <c r="EN4" t="n">
         <v>0</v>
@@ -3368,10 +3368,10 @@
         <v>0</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.2664693550105965</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.4985185152621431</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
         <v>0</v>
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="FL4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="FM4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="FN4" t="n">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="GA4" t="n">
-        <v>1.230769230769231</v>
+        <v>1.75</v>
       </c>
       <c r="GB4" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.5756395979652217</v>
+        <v>0.82915619758885</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.5756395979652217</v>
+        <v>0.82915619758885</v>
       </c>
       <c r="GP4" t="n">
         <v>26</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="FM8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="FN8" t="n">
         <v>0</v>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="FM9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="FN9" t="n">
         <v>0</v>
@@ -7385,10 +7385,10 @@
         <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="EE10" t="n">
         <v>0</v>
@@ -7415,10 +7415,10 @@
         <v>0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
         <v>0</v>
@@ -7445,10 +7445,10 @@
         <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
         <v>0</v>
@@ -7490,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="FL10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
         <v>0</v>
@@ -7532,10 +7532,10 @@
         <v>0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB10" t="n">
         <v>0</v>
@@ -8061,119 +8061,119 @@
         <v>0</v>
       </c>
       <c r="EB11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FM11" t="n">
         <v>1</v>
       </c>
-      <c r="ED11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EM11" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES11" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV11" t="n">
-        <v>0.4898979485566357</v>
-      </c>
-      <c r="EW11" t="n">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="EX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL11" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM11" t="n">
-        <v>5</v>
-      </c>
       <c r="FN11" t="n">
         <v>0</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="GA11" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="GN11" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GO11" t="n">
         <v>0</v>
@@ -8740,118 +8740,118 @@
         <v>0</v>
       </c>
       <c r="EB12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="EC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL12" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="EM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>0.4714045207910317</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL12" t="n">
         <v>2</v>
       </c>
-      <c r="ED12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EM12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES12" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EW12" t="n">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="EX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL12" t="n">
-        <v>6</v>
-      </c>
       <c r="FM12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="FN12" t="n">
         <v>0</v>
@@ -8890,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="GA12" t="n">
         <v>1</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="GN12" t="n">
-        <v>0.4898979485566357</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GO12" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="EB13" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="EC13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>0</v>
@@ -9449,10 +9449,10 @@
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="EN13" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.4930066485916347</v>
+        <v>0.5</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.3726779962499649</v>
+        <v>0</v>
       </c>
       <c r="EX13" t="n">
         <v>0</v>
@@ -9527,10 +9527,10 @@
         <v>0</v>
       </c>
       <c r="FL13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="FM13" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="FN13" t="n">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="GA13" t="n">
         <v>1</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="GN13" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="GO13" t="n">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>3</v>
       </c>
       <c r="EC14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="ED14" t="n">
         <v>0</v>
@@ -10128,10 +10128,10 @@
         <v>0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.5</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.3076923076923077</v>
+        <v>0</v>
       </c>
       <c r="EN14" t="n">
         <v>0</v>
@@ -10158,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.4213250442347432</v>
+        <v>0.5</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="FL14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="FM14" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="FN14" t="n">
         <v>0</v>
@@ -10248,10 +10248,10 @@
         <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5</v>
       </c>
       <c r="GA14" t="n">
-        <v>1.076923076923077</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="GB14" t="n">
         <v>0</v>
@@ -10290,10 +10290,10 @@
         <v>0</v>
       </c>
       <c r="GN14" t="n">
-        <v>0.4865042554105199</v>
+        <v>0.5</v>
       </c>
       <c r="GO14" t="n">
-        <v>0.2664693550105965</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="GP14" t="n">
         <v>14</v>
@@ -10759,7 +10759,7 @@
         <v>0.3142696805273545</v>
       </c>
       <c r="DV15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DW15" t="n">
         <v>0</v>
@@ -10768,7 +10768,7 @@
         <v>0</v>
       </c>
       <c r="DY15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="DZ15" t="n">
         <v>0</v>
@@ -10789,7 +10789,7 @@
         <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.375</v>
       </c>
       <c r="EG15" t="n">
         <v>0</v>
@@ -10798,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.375</v>
       </c>
       <c r="EJ15" t="n">
         <v>0</v>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.4969039949999533</v>
+        <v>0.4841229182759271</v>
       </c>
       <c r="EQ15" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.4969039949999533</v>
+        <v>0.4841229182759271</v>
       </c>
       <c r="ET15" t="n">
         <v>0</v>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="FD15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FE15" t="n">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="FK15" t="n">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>7</v>
       </c>
       <c r="FM15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="FN15" t="n">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>0</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="FS15" t="n">
         <v>0</v>
@@ -10921,16 +10921,16 @@
         <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="FY15" t="n">
         <v>0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.875</v>
       </c>
       <c r="GA15" t="n">
-        <v>1.666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="GB15" t="n">
         <v>0</v>
@@ -10945,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="GG15" t="n">
         <v>0</v>
@@ -10963,16 +10963,16 @@
         <v>0</v>
       </c>
       <c r="GL15" t="n">
-        <v>0.4714045207910317</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="GM15" t="n">
         <v>0</v>
       </c>
       <c r="GN15" t="n">
-        <v>0.628539361054709</v>
+        <v>0.5994789404140899</v>
       </c>
       <c r="GO15" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6614378277661477</v>
       </c>
       <c r="GP15" t="n">
         <v>26</v>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="EC17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED17" t="n">
         <v>0</v>
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
       <c r="EM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EN17" t="n">
         <v>0</v>
@@ -12246,7 +12246,7 @@
         <v>0</v>
       </c>
       <c r="FM17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN17" t="n">
         <v>0</v>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
       <c r="GA17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB17" t="n">
         <v>0</v>
@@ -12844,7 +12844,7 @@
         <v>0</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="EM18" t="n">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="EV18" t="n">
-        <v>0.458257569495584</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="EW18" t="n">
         <v>0</v>
@@ -12925,7 +12925,7 @@
         <v>7</v>
       </c>
       <c r="FM18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="FN18" t="n">
         <v>0</v>
@@ -12964,10 +12964,10 @@
         <v>0</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0.7</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="GA18" t="n">
-        <v>1.3</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="GB18" t="n">
         <v>0</v>
@@ -13006,10 +13006,10 @@
         <v>0</v>
       </c>
       <c r="GN18" t="n">
-        <v>0.6403124237432849</v>
+        <v>0.628539361054709</v>
       </c>
       <c r="GO18" t="n">
-        <v>0.6403124237432849</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="GP18" t="n">
         <v>26</v>
@@ -13493,163 +13493,163 @@
         <v>0</v>
       </c>
       <c r="EB19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="EC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL19" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL19" t="n">
         <v>2</v>
       </c>
-      <c r="ED19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="EM19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="EN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES19" t="n">
-        <v>0</v>
-      </c>
-      <c r="ET19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EV19" t="n">
-        <v>0.4898979485566357</v>
-      </c>
-      <c r="EW19" t="n">
-        <v>0.4898979485566357</v>
-      </c>
-      <c r="EX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EZ19" t="n">
+      <c r="FM19" t="n">
+        <v>2</v>
+      </c>
+      <c r="FN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FZ19" t="n">
         <v>1</v>
-      </c>
-      <c r="FA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FL19" t="n">
-        <v>3</v>
-      </c>
-      <c r="FM19" t="n">
-        <v>5</v>
-      </c>
-      <c r="FN19" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="FO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ19" t="n">
-        <v>0.6</v>
       </c>
       <c r="GA19" t="n">
         <v>1</v>
       </c>
       <c r="GB19" t="n">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="GC19" t="n">
         <v>0</v>
@@ -13685,7 +13685,7 @@
         <v>0</v>
       </c>
       <c r="GN19" t="n">
-        <v>0.4898979485566357</v>
+        <v>0</v>
       </c>
       <c r="GO19" t="n">
         <v>0</v>
@@ -14154,7 +14154,7 @@
         <v>0.464829519280413</v>
       </c>
       <c r="DV20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="DW20" t="n">
         <v>0</v>
@@ -14175,7 +14175,7 @@
         <v>0</v>
       </c>
       <c r="EC20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="ED20" t="n">
         <v>0</v>
@@ -14184,7 +14184,7 @@
         <v>0</v>
       </c>
       <c r="EF20" t="n">
-        <v>0.7058823529411765</v>
+        <v>0</v>
       </c>
       <c r="EG20" t="n">
         <v>0</v>
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="EM20" t="n">
-        <v>0.6470588235294118</v>
+        <v>0</v>
       </c>
       <c r="EN20" t="n">
         <v>0</v>
@@ -14214,7 +14214,7 @@
         <v>0</v>
       </c>
       <c r="EP20" t="n">
-        <v>0.8921029934178294</v>
+        <v>0</v>
       </c>
       <c r="EQ20" t="n">
         <v>0</v>
@@ -14235,7 +14235,7 @@
         <v>0</v>
       </c>
       <c r="EW20" t="n">
-        <v>0.4778846120374095</v>
+        <v>0</v>
       </c>
       <c r="EX20" t="n">
         <v>0</v>
@@ -14280,10 +14280,10 @@
         <v>0</v>
       </c>
       <c r="FL20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="FM20" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="FN20" t="n">
         <v>0</v>
@@ -14322,10 +14322,10 @@
         <v>0</v>
       </c>
       <c r="FZ20" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="GA20" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="GB20" t="n">
         <v>0</v>
@@ -14364,10 +14364,10 @@
         <v>0</v>
       </c>
       <c r="GN20" t="n">
-        <v>0.4556450995538138</v>
+        <v>0.372677996249965</v>
       </c>
       <c r="GO20" t="n">
-        <v>0.3221897397089212</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GP20" t="n">
         <v>7</v>
